--- a/_byStates.bySex.xlsx
+++ b/_byStates.bySex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/Documents/GitHub/sudanS3M/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886C4C57-C311-7348-9C1E-C8534431FFBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675EEB41-A57C-D24C-8B2F-C005D3E0A87A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Al-Gadarif" sheetId="1" r:id="rId1"/>
@@ -125,9 +125,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -427,7 +426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -436,23 +435,23 @@
     <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -463,13 +462,13 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>52.84</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>38.54</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>67.150000000000006</v>
       </c>
     </row>
@@ -480,13 +479,13 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>80.819999999999993</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>70.150000000000006</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>91.49</v>
       </c>
     </row>
@@ -497,13 +496,13 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>72.03</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>61.4</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>82.66</v>
       </c>
     </row>
@@ -514,13 +513,13 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>52.87</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>36</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>69.73</v>
       </c>
     </row>
@@ -531,13 +530,13 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>81.03</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>68.790000000000006</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>93.27</v>
       </c>
     </row>
@@ -548,13 +547,13 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>72.12</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>61.08</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>83.16</v>
       </c>
     </row>
@@ -565,13 +564,13 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>52.64</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>36.9</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>68.37</v>
       </c>
     </row>
@@ -582,13 +581,13 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>81.25</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>69.67</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>92.82</v>
       </c>
     </row>
@@ -599,13 +598,13 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>71.86</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>60.64</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>83.08</v>
       </c>
     </row>
@@ -628,23 +627,23 @@
     <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -655,13 +654,13 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>82.91</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>72.06</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>93.76</v>
       </c>
     </row>
@@ -672,13 +671,13 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>96.28</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>92.06</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>99.99</v>
       </c>
     </row>
@@ -689,13 +688,13 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>91.62</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>85.63</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>97.62</v>
       </c>
     </row>
@@ -706,13 +705,13 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>82.74</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>69.41</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>96.07</v>
       </c>
     </row>
@@ -723,13 +722,13 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>96.55</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>92.11</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>99.99</v>
       </c>
     </row>
@@ -740,13 +739,13 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>91.61</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>85.15</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>98.06</v>
       </c>
     </row>
@@ -757,13 +756,13 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>83.41</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>70.05</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>96.77</v>
       </c>
     </row>
@@ -774,13 +773,13 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>96.25</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>91.08</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>99.99</v>
       </c>
     </row>
@@ -791,13 +790,13 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>91.84</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>85.08</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>98.59</v>
       </c>
     </row>
@@ -820,23 +819,23 @@
     <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -847,13 +846,13 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>38.520000000000003</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>20.88</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>56.15</v>
       </c>
     </row>
@@ -864,13 +863,13 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>81.37</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>64.14</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>98.6</v>
       </c>
     </row>
@@ -881,13 +880,13 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>65.959999999999994</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>49.48</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>82.43</v>
       </c>
     </row>
@@ -898,13 +897,13 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>40.450000000000003</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>17.97</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>62.94</v>
       </c>
     </row>
@@ -915,13 +914,13 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>79.95</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>59.88</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>99.99</v>
       </c>
     </row>
@@ -932,13 +931,13 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>65.569999999999993</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>48.11</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>83.03</v>
       </c>
     </row>
@@ -949,13 +948,13 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>36.979999999999997</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>17.14</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>56.82</v>
       </c>
     </row>
@@ -966,13 +965,13 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>83.04</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>64.709999999999994</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>99.99</v>
       </c>
     </row>
@@ -983,13 +982,13 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>66.290000000000006</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>47.73</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>84.84</v>
       </c>
     </row>
@@ -1012,23 +1011,23 @@
     <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1039,13 +1038,13 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>72.41</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>60.05</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>84.78</v>
       </c>
     </row>
@@ -1056,13 +1055,13 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>89.51</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>82.4</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>96.63</v>
       </c>
     </row>
@@ -1073,13 +1072,13 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>84.32</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>75.27</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>93.37</v>
       </c>
     </row>
@@ -1090,13 +1089,13 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>72.510000000000005</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>57.59</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>87.43</v>
       </c>
     </row>
@@ -1107,13 +1106,13 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>88.47</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>79.38</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>97.56</v>
       </c>
     </row>
@@ -1124,13 +1123,13 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>83.66</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>75.09</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>92.23</v>
       </c>
     </row>
@@ -1141,13 +1140,13 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>72.430000000000007</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>57.14</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>87.73</v>
       </c>
     </row>
@@ -1158,13 +1157,13 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>90.8</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>83.27</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>98.33</v>
       </c>
     </row>
@@ -1175,13 +1174,13 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>85.13</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>75.790000000000006</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>94.47</v>
       </c>
     </row>
@@ -1204,23 +1203,23 @@
     <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1231,13 +1230,13 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>63.55</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>51.39</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>75.72</v>
       </c>
     </row>
@@ -1248,13 +1247,13 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>80.680000000000007</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>69.88</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>91.48</v>
       </c>
     </row>
@@ -1265,13 +1264,13 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>75.239999999999995</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>65.150000000000006</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>85.34</v>
       </c>
     </row>
@@ -1282,13 +1281,13 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>62.86</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>48.62</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>77.099999999999994</v>
       </c>
     </row>
@@ -1299,13 +1298,13 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>80.36</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>69.12</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>91.6</v>
       </c>
     </row>
@@ -1316,13 +1315,13 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>75.03</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>64.900000000000006</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>85.16</v>
       </c>
     </row>
@@ -1333,13 +1332,13 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>64.81</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>50.15</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>79.47</v>
       </c>
     </row>
@@ -1350,13 +1349,13 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>81.069999999999993</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>69.23</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>92.9</v>
       </c>
     </row>
@@ -1367,13 +1366,13 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>75.75</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>64.38</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>87.12</v>
       </c>
     </row>
@@ -1396,23 +1395,23 @@
     <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1423,13 +1422,13 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>39.090000000000003</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>25.59</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>52.59</v>
       </c>
     </row>
@@ -1440,13 +1439,13 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>68.81</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>56.73</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>80.89</v>
       </c>
     </row>
@@ -1457,13 +1456,13 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>60.32</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>48.41</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>72.22</v>
       </c>
     </row>
@@ -1474,13 +1473,13 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>38.380000000000003</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>22.81</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>53.94</v>
       </c>
     </row>
@@ -1491,13 +1490,13 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>70.62</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>57.92</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>83.31</v>
       </c>
     </row>
@@ -1508,13 +1507,13 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>61.85</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>49.64</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>74.06</v>
       </c>
     </row>
@@ -1525,13 +1524,13 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>39.020000000000003</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>23.28</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>54.75</v>
       </c>
     </row>
@@ -1542,13 +1541,13 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>66.430000000000007</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>50.47</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>82.39</v>
       </c>
     </row>
@@ -1559,13 +1558,13 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>58.82</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>45.13</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>72.5</v>
       </c>
     </row>
@@ -1580,7 +1579,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1588,23 +1587,23 @@
     <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1615,13 +1614,13 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>37.549999999999997</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>23.4</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>51.7</v>
       </c>
     </row>
@@ -1632,13 +1631,13 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>68.53</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>54.96</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>82.1</v>
       </c>
     </row>
@@ -1649,13 +1648,13 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>59.68</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>46.74</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>72.62</v>
       </c>
     </row>
@@ -1666,13 +1665,13 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>36.39</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>18.3</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>54.49</v>
       </c>
     </row>
@@ -1683,13 +1682,13 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>71.44</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>58.43</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>84.45</v>
       </c>
     </row>
@@ -1700,13 +1699,13 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>61.51</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>48.57</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>74.459999999999994</v>
       </c>
     </row>
@@ -1717,13 +1716,13 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>38.97</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>22.19</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>55.74</v>
       </c>
     </row>
@@ -1734,13 +1733,13 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>65.349999999999994</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>50.65</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>80.05</v>
       </c>
     </row>
@@ -1751,13 +1750,13 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>57.94</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>44.24</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>71.63</v>
       </c>
     </row>
@@ -1780,23 +1779,23 @@
     <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1807,13 +1806,13 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>22.41</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>12.95</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>31.87</v>
       </c>
     </row>
@@ -1824,13 +1823,13 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>66.02</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>52.9</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>79.13</v>
       </c>
     </row>
@@ -1841,13 +1840,13 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>50.71</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>40.49</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>60.92</v>
       </c>
     </row>
@@ -1858,13 +1857,13 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>22.57</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>11.86</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>33.28</v>
       </c>
     </row>
@@ -1875,13 +1874,13 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>69.72</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>56.16</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>83.29</v>
       </c>
     </row>
@@ -1892,13 +1891,13 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>53.09</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>42.48</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>63.7</v>
       </c>
     </row>
@@ -1909,13 +1908,13 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>21.15</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>10.78</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>31.51</v>
       </c>
     </row>
@@ -1926,13 +1925,13 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>62.7</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>47.69</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>77.709999999999994</v>
       </c>
     </row>
@@ -1943,13 +1942,13 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>48.47</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>37.619999999999997</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>59.32</v>
       </c>
     </row>
@@ -1972,23 +1971,23 @@
     <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1999,13 +1998,13 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>36.549999999999997</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>22.95</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>50.16</v>
       </c>
     </row>
@@ -2016,13 +2015,13 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>74.86</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>62.46</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>87.26</v>
       </c>
     </row>
@@ -2033,13 +2032,13 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>61.79</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>50.3</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>73.28</v>
       </c>
     </row>
@@ -2050,13 +2049,13 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>35.46</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>20.11</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>50.81</v>
       </c>
     </row>
@@ -2067,13 +2066,13 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>77.19</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>65.099999999999994</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>89.27</v>
       </c>
     </row>
@@ -2084,13 +2083,13 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>63.21</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>51.04</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>75.39</v>
       </c>
     </row>
@@ -2101,13 +2100,13 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>37.72</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>21.4</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>54.04</v>
       </c>
     </row>
@@ -2118,13 +2117,13 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>72.69</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>59.26</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>86.11</v>
       </c>
     </row>
@@ -2135,13 +2134,13 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>60.51</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>47.57</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>73.45</v>
       </c>
     </row>
@@ -2155,8 +2154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2164,23 +2163,23 @@
     <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2191,13 +2190,13 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>57.9</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>45.47</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>70.34</v>
       </c>
     </row>
@@ -2208,13 +2207,13 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>84.76</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>74.569999999999993</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>94.95</v>
       </c>
     </row>
@@ -2225,13 +2224,13 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>76.209999999999994</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>66.48</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>85.94</v>
       </c>
     </row>
@@ -2242,13 +2241,13 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>53.72</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>39.119999999999997</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>68.33</v>
       </c>
     </row>
@@ -2259,13 +2258,13 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>83.58</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>73.400000000000006</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>93.76</v>
       </c>
     </row>
@@ -2276,13 +2275,13 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>74.510000000000005</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>64.510000000000005</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>84.51</v>
       </c>
     </row>
@@ -2293,13 +2292,13 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>61.9</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>47.25</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>76.55</v>
       </c>
     </row>
@@ -2310,13 +2309,13 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>85.91</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>74.540000000000006</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>97.28</v>
       </c>
     </row>
@@ -2327,13 +2326,13 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>78.510000000000005</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>67.84</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>89.18</v>
       </c>
     </row>
@@ -2356,23 +2355,23 @@
     <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2383,13 +2382,13 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>72.53</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>57.72</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>87.35</v>
       </c>
     </row>
@@ -2400,13 +2399,13 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>90.85</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>84.18</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>97.52</v>
       </c>
     </row>
@@ -2417,13 +2416,13 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>85.8</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>77.2</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>94.41</v>
       </c>
     </row>
@@ -2434,13 +2433,13 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>71.13</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>55.11</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>87.15</v>
       </c>
     </row>
@@ -2451,13 +2450,13 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>91.54</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>85.45</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>97.64</v>
       </c>
     </row>
@@ -2468,13 +2467,13 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>86.4</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>78.59</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>94.21</v>
       </c>
     </row>
@@ -2485,13 +2484,13 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>74.180000000000007</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>58.55</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>89.82</v>
       </c>
     </row>
@@ -2502,13 +2501,13 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>89.97</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>82.03</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>97.91</v>
       </c>
     </row>
@@ -2519,13 +2518,13 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>85.12</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>76.069999999999993</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>94.17</v>
       </c>
     </row>
@@ -2540,7 +2539,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2548,23 +2547,23 @@
     <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2575,13 +2574,13 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>45.66</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>33.64</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>57.68</v>
       </c>
     </row>
@@ -2592,13 +2591,13 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>71.739999999999995</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>59.77</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>83.7</v>
       </c>
     </row>
@@ -2609,13 +2608,13 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>63.32</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>53.72</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>72.92</v>
       </c>
     </row>
@@ -2626,13 +2625,13 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>46.24</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>31.22</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>61.27</v>
       </c>
     </row>
@@ -2643,13 +2642,13 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>73.86</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>61.71</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>86.01</v>
       </c>
     </row>
@@ -2660,13 +2659,13 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>65.569999999999993</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>54.78</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>76.36</v>
       </c>
     </row>
@@ -2677,13 +2676,13 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>45.26</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>32.19</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>58.33</v>
       </c>
     </row>
@@ -2694,13 +2693,13 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>69.17</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>55.49</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>82.85</v>
       </c>
     </row>
@@ -2711,13 +2710,13 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>61.41</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>49.82</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>73.010000000000005</v>
       </c>
     </row>
@@ -2732,7 +2731,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2740,23 +2739,23 @@
     <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2767,13 +2766,13 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>25.33</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>7.89</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>42.78</v>
       </c>
     </row>
@@ -2784,13 +2783,13 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>62.08</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>45.07</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>79.099999999999994</v>
       </c>
     </row>
@@ -2801,13 +2800,13 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>49.14</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>34.020000000000003</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>64.260000000000005</v>
       </c>
     </row>
@@ -2818,13 +2817,13 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>24.28</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>4.6500000000000004</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>43.9</v>
       </c>
     </row>
@@ -2835,13 +2834,13 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>64.260000000000005</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>46.49</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>82.03</v>
       </c>
     </row>
@@ -2852,13 +2851,13 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>49.65</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>33.49</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>65.81</v>
       </c>
     </row>
@@ -2869,13 +2868,13 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>25.93</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>8.06</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>43.8</v>
       </c>
     </row>
@@ -2886,13 +2885,13 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>58.58</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>40.14</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>77.02</v>
       </c>
     </row>
@@ -2903,13 +2902,13 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>47.53</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>32.56</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>62.51</v>
       </c>
     </row>
@@ -2932,23 +2931,23 @@
     <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2959,13 +2958,13 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>32.42</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>20.5</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>44.35</v>
       </c>
     </row>
@@ -2976,13 +2975,13 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>62.34</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>50.79</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>73.89</v>
       </c>
     </row>
@@ -2993,13 +2992,13 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>51.91</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>43</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>60.82</v>
       </c>
     </row>
@@ -3010,13 +3009,13 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>33.21</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>19.86</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>46.56</v>
       </c>
     </row>
@@ -3027,13 +3026,13 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>65.430000000000007</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>39.96</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>90.9</v>
       </c>
     </row>
@@ -3044,13 +3043,13 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>53.54</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>43.91</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>63.18</v>
       </c>
     </row>
@@ -3061,13 +3060,13 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>31.55</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>18.64</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>44.46</v>
       </c>
     </row>
@@ -3078,13 +3077,13 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>58.92</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>44.85</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>73</v>
       </c>
     </row>
@@ -3095,13 +3094,13 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>49.83</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>39.43</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>60.23</v>
       </c>
     </row>
@@ -3116,7 +3115,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3124,23 +3123,23 @@
     <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3151,13 +3150,13 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>34</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>22.2</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>45.8</v>
       </c>
     </row>
@@ -3168,13 +3167,13 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>70</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>58.97</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>81.02</v>
       </c>
     </row>
@@ -3185,13 +3184,13 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>59.76</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>49.56</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>69.95</v>
       </c>
     </row>
@@ -3202,13 +3201,13 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>33.82</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>18.96</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>48.68</v>
       </c>
     </row>
@@ -3219,13 +3218,13 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>79.58</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>69.150000000000006</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>90.01</v>
       </c>
     </row>
@@ -3236,13 +3235,13 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>66.33</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>55.97</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>76.7</v>
       </c>
     </row>
@@ -3253,13 +3252,13 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>33.92</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>20.45</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>47.38</v>
       </c>
     </row>
@@ -3270,13 +3269,13 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>59.65</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>45.12</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>74.17</v>
       </c>
     </row>
@@ -3287,13 +3286,13 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>52.17</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>39.72</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>64.62</v>
       </c>
     </row>
@@ -3308,7 +3307,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3316,23 +3315,23 @@
     <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3343,13 +3342,13 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>78.55</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>66.3</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>90.8</v>
       </c>
     </row>
@@ -3360,13 +3359,13 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>95.7</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>91.35</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>99.99</v>
       </c>
     </row>
@@ -3377,13 +3376,13 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>90.54</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>84.71</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>96.36</v>
       </c>
     </row>
@@ -3394,13 +3393,13 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>78.55</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>64.319999999999993</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>92.78</v>
       </c>
     </row>
@@ -3411,13 +3410,13 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>95.15</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>89.7</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>99.99</v>
       </c>
     </row>
@@ -3428,13 +3427,13 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>90.48</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>84.29</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>96.67</v>
       </c>
     </row>
@@ -3445,13 +3444,13 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>79.03</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>65.400000000000006</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>92.65</v>
       </c>
     </row>
@@ -3462,13 +3461,13 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>96.34</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>92.16</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>99.99</v>
       </c>
     </row>
@@ -3479,13 +3478,13 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>90.88</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>84.57</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>97.19</v>
       </c>
     </row>
@@ -3500,7 +3499,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3508,23 +3507,23 @@
     <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3535,13 +3534,13 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>44.79</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>27.52</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>62.07</v>
       </c>
     </row>
@@ -3552,13 +3551,13 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>75.17</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>63.56</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>86.77</v>
       </c>
     </row>
@@ -3569,13 +3568,13 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>64.55</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>53.52</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>75.58</v>
       </c>
     </row>
@@ -3586,13 +3585,13 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>44.27</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>27.25</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>61.29</v>
       </c>
     </row>
@@ -3603,13 +3602,13 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>75.78</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>64.45</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>87.12</v>
       </c>
     </row>
@@ -3620,13 +3619,13 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>64.069999999999993</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>53.18</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>74.95</v>
       </c>
     </row>
@@ -3637,13 +3636,13 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>44.86</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>26.83</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>62.89</v>
       </c>
     </row>
@@ -3654,13 +3653,13 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>74</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>60.9</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>87.11</v>
       </c>
     </row>
@@ -3671,13 +3670,13 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>64.56</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>52.43</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>76.69</v>
       </c>
     </row>
@@ -3700,23 +3699,23 @@
     <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3727,13 +3726,13 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>31.58</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>20.329999999999998</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>42.83</v>
       </c>
     </row>
@@ -3744,13 +3743,13 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>76.849999999999994</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>68.47</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>85.23</v>
       </c>
     </row>
@@ -3761,13 +3760,13 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>64.430000000000007</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>56.27</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>72.59</v>
       </c>
     </row>
@@ -3778,13 +3777,13 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>29.55</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>17.440000000000001</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>41.66</v>
       </c>
     </row>
@@ -3795,13 +3794,13 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>78.47</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>69.34</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>87.59</v>
       </c>
     </row>
@@ -3812,13 +3811,13 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>65.53</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>57.03</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>74.040000000000006</v>
       </c>
     </row>
@@ -3829,13 +3828,13 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>33.19</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>19.54</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>46.83</v>
       </c>
     </row>
@@ -3846,13 +3845,13 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>75.19</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>65.69</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>84.68</v>
       </c>
     </row>
@@ -3863,13 +3862,13 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>63.72</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>54.6</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>72.83</v>
       </c>
     </row>

--- a/_byStates.bySex.xlsx
+++ b/_byStates.bySex.xlsx
@@ -1,103 +1,88 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/Documents/GitHub/sudanS3M/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675EEB41-A57C-D24C-8B2F-C005D3E0A87A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Al-Gadarif" sheetId="1" r:id="rId1"/>
-    <sheet name="Al-Gazeera" sheetId="2" r:id="rId2"/>
-    <sheet name="Blue Nile" sheetId="3" r:id="rId3"/>
-    <sheet name="Central Darfur" sheetId="4" r:id="rId4"/>
-    <sheet name="East Darfur" sheetId="5" r:id="rId5"/>
-    <sheet name="Kassala" sheetId="6" r:id="rId6"/>
-    <sheet name="Khartoum" sheetId="7" r:id="rId7"/>
-    <sheet name="North Darfur" sheetId="8" r:id="rId8"/>
-    <sheet name="North Kourdofan" sheetId="9" r:id="rId9"/>
-    <sheet name="Northern" sheetId="10" r:id="rId10"/>
-    <sheet name="Red Sea" sheetId="11" r:id="rId11"/>
-    <sheet name="River Nile" sheetId="12" r:id="rId12"/>
-    <sheet name="Sinar" sheetId="13" r:id="rId13"/>
-    <sheet name="South Darfur" sheetId="14" r:id="rId14"/>
-    <sheet name="South Kourdofan" sheetId="15" r:id="rId15"/>
-    <sheet name="West Darfur" sheetId="16" r:id="rId16"/>
-    <sheet name="West Kourdofan" sheetId="17" r:id="rId17"/>
-    <sheet name="White Nile" sheetId="18" r:id="rId18"/>
+    <sheet name="Al-Gadarif" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Al-Gazeera" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Blue Nile" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Central Darfur" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="East Darfur" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Kassala" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Khartoum" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="North Darfur" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="North Kourdofan" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Northern" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Red Sea" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="River Nile" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Sinar" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="South Darfur" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="South Kourdofan" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="West Darfur" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="West Kourdofan" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="White Nile" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>Indicator</t>
+    <t xml:space="preserve">Indicator</t>
   </si>
   <si>
-    <t>Type</t>
+    <t xml:space="preserve">Type</t>
   </si>
   <si>
-    <t>Estimator</t>
+    <t xml:space="preserve">Estimate</t>
   </si>
   <si>
-    <t>LCL</t>
+    <t xml:space="preserve">LCL</t>
   </si>
   <si>
-    <t>UCL</t>
+    <t xml:space="preserve">UCL</t>
   </si>
   <si>
-    <t>Education : Access to preschool education - ALL children</t>
+    <t xml:space="preserve">Education : Access to preschool education - ALL children</t>
   </si>
   <si>
-    <t>Proportion</t>
+    <t xml:space="preserve">Proportion</t>
   </si>
   <si>
-    <t>Education : Access to basic education - ALL children</t>
+    <t xml:space="preserve">Education : Access to basic education - ALL children</t>
   </si>
   <si>
-    <t>Education : Access to education (preschool or basic) - ALL children</t>
+    <t xml:space="preserve">Education : Access to education (preschool or basic) - ALL children</t>
   </si>
   <si>
-    <t>Education : Access to preschool education - MALES</t>
+    <t xml:space="preserve">Education : Access to preschool education - MALES</t>
   </si>
   <si>
-    <t>Education : Access to basic education - MALES</t>
+    <t xml:space="preserve">Education : Access to basic education - MALES</t>
   </si>
   <si>
-    <t>Education : Access to education (preschool or basic) - MALES</t>
+    <t xml:space="preserve">Education : Access to education (preschool or basic) - MALES</t>
   </si>
   <si>
-    <t>Education : Access to preschool education - FEMALES</t>
+    <t xml:space="preserve">Education : Access to preschool education - FEMALES</t>
   </si>
   <si>
-    <t>Education : Access to basic education - FEMALES</t>
+    <t xml:space="preserve">Education : Access to basic education - FEMALES</t>
   </si>
   <si>
-    <t>Education : Access to education (preschool or basic) - FEMALES</t>
+    <t xml:space="preserve">Education : Access to education (preschool or basic) - FEMALES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -125,23 +110,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -423,3457 +398,3313 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>52.84</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>38.54</v>
       </c>
-      <c r="E2">
-        <v>67.150000000000006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E2" t="n">
+        <v>67.15</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>80.819999999999993</v>
-      </c>
-      <c r="D3">
-        <v>70.150000000000006</v>
-      </c>
-      <c r="E3">
+      <c r="C3" t="n">
+        <v>80.82</v>
+      </c>
+      <c r="D3" t="n">
+        <v>70.15</v>
+      </c>
+      <c r="E3" t="n">
         <v>91.49</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>72.03</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>61.4</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>82.66</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>52.87</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>36</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>69.73</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>81.03</v>
       </c>
-      <c r="D6">
-        <v>68.790000000000006</v>
-      </c>
-      <c r="E6">
+      <c r="D6" t="n">
+        <v>68.79</v>
+      </c>
+      <c r="E6" t="n">
         <v>93.27</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>72.12</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>61.08</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>83.16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>52.64</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>36.9</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>68.37</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>81.25</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>69.67</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>92.82</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>71.86</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>60.64</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>83.08</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>82.91</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>72.06</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>93.76</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>96.28</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>92.06</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>99.99</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>91.62</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>85.63</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>97.62</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>82.74</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>69.41</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>96.07</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>96.55</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>92.11</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>99.99</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>91.61</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>85.15</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>98.06</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>83.41</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>70.05</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>96.77</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>96.25</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>91.08</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>99.99</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>91.84</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>85.08</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>98.59</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>38.520000000000003</v>
-      </c>
-      <c r="D2">
+      <c r="C2" t="n">
+        <v>38.52</v>
+      </c>
+      <c r="D2" t="n">
         <v>20.88</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>56.15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>81.37</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>64.14</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>98.6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>65.959999999999994</v>
-      </c>
-      <c r="D4">
+      <c r="C4" t="n">
+        <v>65.96</v>
+      </c>
+      <c r="D4" t="n">
         <v>49.48</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>82.43</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>40.450000000000003</v>
-      </c>
-      <c r="D5">
+      <c r="C5" t="n">
+        <v>40.45</v>
+      </c>
+      <c r="D5" t="n">
         <v>17.97</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>62.94</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>79.95</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>59.88</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>99.99</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>65.569999999999993</v>
-      </c>
-      <c r="D7">
+      <c r="C7" t="n">
+        <v>65.57</v>
+      </c>
+      <c r="D7" t="n">
         <v>48.11</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>83.03</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
-        <v>36.979999999999997</v>
-      </c>
-      <c r="D8">
+      <c r="C8" t="n">
+        <v>36.98</v>
+      </c>
+      <c r="D8" t="n">
         <v>17.14</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>56.82</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>83.04</v>
       </c>
-      <c r="D9">
-        <v>64.709999999999994</v>
-      </c>
-      <c r="E9">
+      <c r="D9" t="n">
+        <v>64.71</v>
+      </c>
+      <c r="E9" t="n">
         <v>99.99</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10">
-        <v>66.290000000000006</v>
-      </c>
-      <c r="D10">
+      <c r="C10" t="n">
+        <v>66.29</v>
+      </c>
+      <c r="D10" t="n">
         <v>47.73</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>84.84</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>72.41</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>60.05</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>84.78</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>89.51</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>82.4</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>96.63</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>84.32</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>75.27</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>93.37</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>72.510000000000005</v>
-      </c>
-      <c r="D5">
+      <c r="C5" t="n">
+        <v>72.51</v>
+      </c>
+      <c r="D5" t="n">
         <v>57.59</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>87.43</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>88.47</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>79.38</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>97.56</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>83.66</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>75.09</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>92.23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
-        <v>72.430000000000007</v>
-      </c>
-      <c r="D8">
+      <c r="C8" t="n">
+        <v>72.43</v>
+      </c>
+      <c r="D8" t="n">
         <v>57.14</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>87.73</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>90.8</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>83.27</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>98.33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>85.13</v>
       </c>
-      <c r="D10">
-        <v>75.790000000000006</v>
-      </c>
-      <c r="E10">
+      <c r="D10" t="n">
+        <v>75.79</v>
+      </c>
+      <c r="E10" t="n">
         <v>94.47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>63.55</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>51.39</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>75.72</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>80.680000000000007</v>
-      </c>
-      <c r="D3">
+      <c r="C3" t="n">
+        <v>80.68</v>
+      </c>
+      <c r="D3" t="n">
         <v>69.88</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>91.48</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>75.239999999999995</v>
-      </c>
-      <c r="D4">
-        <v>65.150000000000006</v>
-      </c>
-      <c r="E4">
+      <c r="C4" t="n">
+        <v>75.24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>65.15</v>
+      </c>
+      <c r="E4" t="n">
         <v>85.34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>62.86</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>48.62</v>
       </c>
-      <c r="E5">
-        <v>77.099999999999994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5" t="n">
+        <v>77.1</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>80.36</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>69.12</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>91.6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>75.03</v>
       </c>
-      <c r="D7">
-        <v>64.900000000000006</v>
-      </c>
-      <c r="E7">
+      <c r="D7" t="n">
+        <v>64.9</v>
+      </c>
+      <c r="E7" t="n">
         <v>85.16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>64.81</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>50.15</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>79.47</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
-        <v>81.069999999999993</v>
-      </c>
-      <c r="D9">
+      <c r="C9" t="n">
+        <v>81.07</v>
+      </c>
+      <c r="D9" t="n">
         <v>69.23</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>92.9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>75.75</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>64.38</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>87.12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>39.090000000000003</v>
-      </c>
-      <c r="D2">
+      <c r="C2" t="n">
+        <v>39.09</v>
+      </c>
+      <c r="D2" t="n">
         <v>25.59</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>52.59</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>68.81</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>56.73</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>80.89</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>60.32</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>48.41</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>72.22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>38.380000000000003</v>
-      </c>
-      <c r="D5">
+      <c r="C5" t="n">
+        <v>38.38</v>
+      </c>
+      <c r="D5" t="n">
         <v>22.81</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>53.94</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>70.62</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>57.92</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>83.31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>61.85</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>49.64</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>74.06</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
-        <v>39.020000000000003</v>
-      </c>
-      <c r="D8">
+      <c r="C8" t="n">
+        <v>39.02</v>
+      </c>
+      <c r="D8" t="n">
         <v>23.28</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>54.75</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
-        <v>66.430000000000007</v>
-      </c>
-      <c r="D9">
+      <c r="C9" t="n">
+        <v>66.43</v>
+      </c>
+      <c r="D9" t="n">
         <v>50.47</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>82.39</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>58.82</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>45.13</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>72.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>37.549999999999997</v>
-      </c>
-      <c r="D2">
+      <c r="C2" t="n">
+        <v>37.55</v>
+      </c>
+      <c r="D2" t="n">
         <v>23.4</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>51.7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>68.53</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>54.96</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>82.1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>59.68</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>46.74</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>72.62</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>36.39</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>18.3</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>54.49</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>71.44</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>58.43</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>84.45</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>61.51</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>48.57</v>
       </c>
-      <c r="E7">
-        <v>74.459999999999994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E7" t="n">
+        <v>74.46</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>38.97</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>22.19</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>55.74</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
-        <v>65.349999999999994</v>
-      </c>
-      <c r="D9">
+      <c r="C9" t="n">
+        <v>65.35</v>
+      </c>
+      <c r="D9" t="n">
         <v>50.65</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>80.05</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>57.94</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>44.24</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>71.63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>22.41</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>12.95</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>31.87</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>66.02</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>52.9</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>79.13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>50.71</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>40.49</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>60.92</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>22.57</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>11.86</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>33.28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>69.72</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>56.16</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>83.29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>53.09</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>42.48</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>63.7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>21.15</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>10.78</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>31.51</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>62.7</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>47.69</v>
       </c>
-      <c r="E9">
-        <v>77.709999999999994</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E9" t="n">
+        <v>77.71</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>48.47</v>
       </c>
-      <c r="D10">
-        <v>37.619999999999997</v>
-      </c>
-      <c r="E10">
+      <c r="D10" t="n">
+        <v>37.62</v>
+      </c>
+      <c r="E10" t="n">
         <v>59.32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>36.549999999999997</v>
-      </c>
-      <c r="D2">
+      <c r="C2" t="n">
+        <v>36.55</v>
+      </c>
+      <c r="D2" t="n">
         <v>22.95</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>50.16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>74.86</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>62.46</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>87.26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>61.79</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>50.3</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>73.28</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>35.46</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>20.11</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>50.81</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>77.19</v>
       </c>
-      <c r="D6">
-        <v>65.099999999999994</v>
-      </c>
-      <c r="E6">
+      <c r="D6" t="n">
+        <v>65.1</v>
+      </c>
+      <c r="E6" t="n">
         <v>89.27</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>63.21</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>51.04</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>75.39</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>37.72</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>21.4</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>54.04</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>72.69</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>59.26</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>86.11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>60.51</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>47.57</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>73.45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>57.9</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>45.47</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>70.34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>84.76</v>
       </c>
-      <c r="D3">
-        <v>74.569999999999993</v>
-      </c>
-      <c r="E3">
+      <c r="D3" t="n">
+        <v>74.57</v>
+      </c>
+      <c r="E3" t="n">
         <v>94.95</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>76.209999999999994</v>
-      </c>
-      <c r="D4">
+      <c r="C4" t="n">
+        <v>76.21</v>
+      </c>
+      <c r="D4" t="n">
         <v>66.48</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>85.94</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>53.72</v>
       </c>
-      <c r="D5">
-        <v>39.119999999999997</v>
-      </c>
-      <c r="E5">
+      <c r="D5" t="n">
+        <v>39.12</v>
+      </c>
+      <c r="E5" t="n">
         <v>68.33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>83.58</v>
       </c>
-      <c r="D6">
-        <v>73.400000000000006</v>
-      </c>
-      <c r="E6">
+      <c r="D6" t="n">
+        <v>73.4</v>
+      </c>
+      <c r="E6" t="n">
         <v>93.76</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>74.510000000000005</v>
-      </c>
-      <c r="D7">
-        <v>64.510000000000005</v>
-      </c>
-      <c r="E7">
+      <c r="C7" t="n">
+        <v>74.51</v>
+      </c>
+      <c r="D7" t="n">
+        <v>64.51</v>
+      </c>
+      <c r="E7" t="n">
         <v>84.51</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>61.9</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>47.25</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>76.55</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>85.91</v>
       </c>
-      <c r="D9">
-        <v>74.540000000000006</v>
-      </c>
-      <c r="E9">
+      <c r="D9" t="n">
+        <v>74.54</v>
+      </c>
+      <c r="E9" t="n">
         <v>97.28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10">
-        <v>78.510000000000005</v>
-      </c>
-      <c r="D10">
+      <c r="C10" t="n">
+        <v>78.51</v>
+      </c>
+      <c r="D10" t="n">
         <v>67.84</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>89.18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>72.53</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>57.72</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>87.35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>90.85</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>84.18</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>97.52</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>85.8</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>77.2</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>94.41</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>71.13</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>55.11</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>87.15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>91.54</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>85.45</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>97.64</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>86.4</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>78.59</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>94.21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
-        <v>74.180000000000007</v>
-      </c>
-      <c r="D8">
+      <c r="C8" t="n">
+        <v>74.18</v>
+      </c>
+      <c r="D8" t="n">
         <v>58.55</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>89.82</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>89.97</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>82.03</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>97.91</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>85.12</v>
       </c>
-      <c r="D10">
-        <v>76.069999999999993</v>
-      </c>
-      <c r="E10">
+      <c r="D10" t="n">
+        <v>76.07</v>
+      </c>
+      <c r="E10" t="n">
         <v>94.17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>45.66</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>33.64</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>57.68</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>71.739999999999995</v>
-      </c>
-      <c r="D3">
+      <c r="C3" t="n">
+        <v>71.74</v>
+      </c>
+      <c r="D3" t="n">
         <v>59.77</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>83.7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>63.32</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>53.72</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>72.92</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>46.24</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>31.22</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>61.27</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>73.86</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>61.71</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>86.01</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>65.569999999999993</v>
-      </c>
-      <c r="D7">
+      <c r="C7" t="n">
+        <v>65.57</v>
+      </c>
+      <c r="D7" t="n">
         <v>54.78</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>76.36</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>45.26</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>32.19</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>58.33</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>69.17</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>55.49</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>82.85</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>61.41</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>49.82</v>
       </c>
-      <c r="E10">
-        <v>73.010000000000005</v>
+      <c r="E10" t="n">
+        <v>73.01</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>25.33</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>7.89</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>42.78</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>62.08</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>45.07</v>
       </c>
-      <c r="E3">
-        <v>79.099999999999994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3" t="n">
+        <v>79.1</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>49.14</v>
       </c>
-      <c r="D4">
-        <v>34.020000000000003</v>
-      </c>
-      <c r="E4">
-        <v>64.260000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D4" t="n">
+        <v>34.02</v>
+      </c>
+      <c r="E4" t="n">
+        <v>64.26</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>24.28</v>
       </c>
-      <c r="D5">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="E5">
+      <c r="D5" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="E5" t="n">
         <v>43.9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
-        <v>64.260000000000005</v>
-      </c>
-      <c r="D6">
+      <c r="C6" t="n">
+        <v>64.26</v>
+      </c>
+      <c r="D6" t="n">
         <v>46.49</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>82.03</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>49.65</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>33.49</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>65.81</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>25.93</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>8.06</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>43.8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>58.58</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>40.14</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>77.02</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>47.53</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>32.56</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>62.51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>32.42</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>20.5</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>44.35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>62.34</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>50.79</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>73.89</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>51.91</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>43</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>60.82</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>33.21</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>19.86</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>46.56</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
-        <v>65.430000000000007</v>
-      </c>
-      <c r="D6">
+      <c r="C6" t="n">
+        <v>65.43</v>
+      </c>
+      <c r="D6" t="n">
         <v>39.96</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>90.9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>53.54</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>43.91</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>63.18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>31.55</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>18.64</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>44.46</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>58.92</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>44.85</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>49.83</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>39.43</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>60.23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>34</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>22.2</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>45.8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>70</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>58.97</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>81.02</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>59.76</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>49.56</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>69.95</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>33.82</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>18.96</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>48.68</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>79.58</v>
       </c>
-      <c r="D6">
-        <v>69.150000000000006</v>
-      </c>
-      <c r="E6">
+      <c r="D6" t="n">
+        <v>69.15</v>
+      </c>
+      <c r="E6" t="n">
         <v>90.01</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>66.33</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>55.97</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>76.7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>33.92</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>20.45</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>47.38</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>59.65</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>45.12</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>74.17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>52.17</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>39.72</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>64.62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>78.55</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>66.3</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>90.8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>95.7</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>91.35</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>99.99</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>90.54</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>84.71</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>96.36</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>78.55</v>
       </c>
-      <c r="D5">
-        <v>64.319999999999993</v>
-      </c>
-      <c r="E5">
+      <c r="D5" t="n">
+        <v>64.32</v>
+      </c>
+      <c r="E5" t="n">
         <v>92.78</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>95.15</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>89.7</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>99.99</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>90.48</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>84.29</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>96.67</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>79.03</v>
       </c>
-      <c r="D8">
-        <v>65.400000000000006</v>
-      </c>
-      <c r="E8">
+      <c r="D8" t="n">
+        <v>65.4</v>
+      </c>
+      <c r="E8" t="n">
         <v>92.65</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>96.34</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>92.16</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>99.99</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>90.88</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>84.57</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>97.19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>44.79</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>27.52</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>62.07</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>75.17</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>63.56</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>86.77</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>64.55</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>53.52</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>75.58</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>44.27</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>27.25</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>61.29</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>75.78</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>64.45</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>87.12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>64.069999999999993</v>
-      </c>
-      <c r="D7">
+      <c r="C7" t="n">
+        <v>64.07</v>
+      </c>
+      <c r="D7" t="n">
         <v>53.18</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>74.95</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>44.86</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>26.83</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>62.89</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>74</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>60.9</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>87.11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>64.56</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>52.43</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>76.69</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>31.58</v>
       </c>
-      <c r="D2">
-        <v>20.329999999999998</v>
-      </c>
-      <c r="E2">
+      <c r="D2" t="n">
+        <v>20.33</v>
+      </c>
+      <c r="E2" t="n">
         <v>42.83</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>76.849999999999994</v>
-      </c>
-      <c r="D3">
+      <c r="C3" t="n">
+        <v>76.85</v>
+      </c>
+      <c r="D3" t="n">
         <v>68.47</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>85.23</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>64.430000000000007</v>
-      </c>
-      <c r="D4">
+      <c r="C4" t="n">
+        <v>64.43</v>
+      </c>
+      <c r="D4" t="n">
         <v>56.27</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>72.59</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>29.55</v>
       </c>
-      <c r="D5">
-        <v>17.440000000000001</v>
-      </c>
-      <c r="E5">
+      <c r="D5" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="E5" t="n">
         <v>41.66</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>78.47</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>69.34</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>87.59</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>65.53</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>57.03</v>
       </c>
-      <c r="E7">
-        <v>74.040000000000006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E7" t="n">
+        <v>74.04</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>33.19</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>19.54</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>46.83</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>75.19</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>65.69</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>84.68</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>63.72</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>54.6</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>72.83</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>